--- a/figures/tables.xlsx
+++ b/figures/tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cindy\nc-covid-herd-immunity-model-v2\figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{254ABC86-CD03-462A-BC93-65CC27497D4C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D79D45A-E6AE-49AB-88AE-BFEC547AB7F1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16350" windowHeight="6510" xr2:uid="{670CA017-CBD1-4E97-9A89-66E11BC1612E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t>DATE</t>
   </si>
@@ -61,6 +61,30 @@
   </si>
   <si>
     <t>Column4</t>
+  </si>
+  <si>
+    <t>Table 2. Distribution of Parameters for North Carolina Counties (N=100)</t>
+  </si>
+  <si>
+    <t>Parameter</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Beta</t>
+  </si>
+  <si>
+    <t>Gamma</t>
+  </si>
+  <si>
+    <t>R0</t>
+  </si>
+  <si>
+    <t>HIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recovery Time (days) </t>
   </si>
 </sst>
 </file>
@@ -103,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -113,16 +137,17 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -138,14 +163,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F7C8CAE0-076E-4B20-807D-B6B5E6EC40AA}" name="Table2" displayName="Table2" ref="A1:E9" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F7C8CAE0-076E-4B20-807D-B6B5E6EC40AA}" name="Table2" displayName="Table2" ref="A1:E9" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="A1:E9" xr:uid="{41C4CEDE-B1B1-4870-B4D5-94502DC545E0}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{AE380184-FEFE-4758-84CC-E378AAF36E78}" name="Table 1. Distribution of Immunity % for North Carolina Counties" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{AE380184-FEFE-4758-84CC-E378AAF36E78}" name="Table 1. Distribution of Immunity % for North Carolina Counties" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{779BAA9D-ECE7-4CAB-ABAF-B5A5330B7E73}" name="Column1"/>
     <tableColumn id="3" xr3:uid="{A0F0721E-1489-4E44-8FD6-E371925FA23F}" name="Column2"/>
     <tableColumn id="4" xr3:uid="{7B719FAD-C98E-4752-93DB-54DDFDF70131}" name="Column3"/>
     <tableColumn id="5" xr3:uid="{5BDF4BBC-A71C-4707-BE7A-71D0C4EA0F50}" name="Column4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B308DCD3-3076-4FA4-AEFF-85EE2F698577}" name="Table1" displayName="Table1" ref="A11:E17" totalsRowShown="0">
+  <autoFilter ref="A11:E17" xr:uid="{CDDCDC9E-2979-4731-84B7-08024EEB47F1}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{18C5A42E-976F-47AD-B16C-FA508B9656B1}" name="Table 2. Distribution of Parameters for North Carolina Counties (N=100)"/>
+    <tableColumn id="2" xr3:uid="{7ED2EA96-B32A-4A07-B722-0EF9CFCB92CB}" name="Column1"/>
+    <tableColumn id="3" xr3:uid="{50B7C064-5DBE-42D3-9202-784673FB9CDA}" name="Column2"/>
+    <tableColumn id="4" xr3:uid="{5C20267C-A034-4D48-836B-F26479D90C7F}" name="Column3"/>
+    <tableColumn id="5" xr3:uid="{41DCCEF4-692D-44F3-9E6D-12C7D9712BF4}" name="Column4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -448,15 +487,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B67CBDC-99CE-4DE7-AFF4-7D621D9934DE}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="61.140625" customWidth="1"/>
+    <col min="1" max="1" width="65.7109375" customWidth="1"/>
     <col min="2" max="5" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -602,11 +641,131 @@
         <v>6</v>
       </c>
     </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>4.08</v>
+      </c>
+      <c r="C13">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D13">
+        <v>3.9</v>
+      </c>
+      <c r="E13">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>1.29</v>
+      </c>
+      <c r="C14">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="D14">
+        <v>1.2</v>
+      </c>
+      <c r="E14">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>3.18</v>
+      </c>
+      <c r="C15">
+        <v>0.47799999999999998</v>
+      </c>
+      <c r="D15">
+        <v>3.2</v>
+      </c>
+      <c r="E15">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="5">
+        <v>0.68</v>
+      </c>
+      <c r="C16">
+        <v>0.05</v>
+      </c>
+      <c r="D16">
+        <v>0.69</v>
+      </c>
+      <c r="E16">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="5">
+        <v>5.72</v>
+      </c>
+      <c r="C17">
+        <v>1.32</v>
+      </c>
+      <c r="D17">
+        <v>5.83</v>
+      </c>
+      <c r="E17">
+        <v>1.7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="4294967294" r:id="rId1"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>